--- a/documents/design/Activities.xlsx
+++ b/documents/design/Activities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="21075" windowHeight="9270"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="17085" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="244">
   <si>
     <t>Activity</t>
   </si>
@@ -499,6 +499,255 @@
   </si>
   <si>
     <t>Tux</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>Massage therapist</t>
+  </si>
+  <si>
+    <t>Spa</t>
+  </si>
+  <si>
+    <t>Nail Salon</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Beautician</t>
+  </si>
+  <si>
+    <t>Hair Salon</t>
+  </si>
+  <si>
+    <t>Hair Stylist</t>
+  </si>
+  <si>
+    <t>Doctor's office</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Dentist office</t>
+  </si>
+  <si>
+    <t>Dentist</t>
+  </si>
+  <si>
+    <t>Eye clinic</t>
+  </si>
+  <si>
+    <t>Optometrist</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Physical Therapy office</t>
+  </si>
+  <si>
+    <t>Physical Therapist</t>
+  </si>
+  <si>
+    <t>Chiropractic</t>
+  </si>
+  <si>
+    <t>Find Chiropractor</t>
+  </si>
+  <si>
+    <t>Chiropractic clinic</t>
+  </si>
+  <si>
+    <t>Chiropractor</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>Personal Trainer</t>
+  </si>
+  <si>
+    <t>Karate Dojo</t>
+  </si>
+  <si>
+    <t>Karate instructor</t>
+  </si>
+  <si>
+    <t>Gutter cleaner</t>
+  </si>
+  <si>
+    <t>House painter</t>
+  </si>
+  <si>
+    <t>Find a health club</t>
+  </si>
+  <si>
+    <t>Health club</t>
+  </si>
+  <si>
+    <t>Find a yoga studio</t>
+  </si>
+  <si>
+    <t>Yoga studio</t>
+  </si>
+  <si>
+    <t>Find a dance studio</t>
+  </si>
+  <si>
+    <t>Dance studio</t>
+  </si>
+  <si>
+    <t>Yoga instructor</t>
+  </si>
+  <si>
+    <t>Dance instructor</t>
+  </si>
+  <si>
+    <t>Wash the windows</t>
+  </si>
+  <si>
+    <t>Window washer</t>
+  </si>
+  <si>
+    <t>Pest control service</t>
+  </si>
+  <si>
+    <t>HVAC company</t>
+  </si>
+  <si>
+    <t>Roofing company</t>
+  </si>
+  <si>
+    <t>Roofer</t>
+  </si>
+  <si>
+    <t>Find a handyman</t>
+  </si>
+  <si>
+    <t>Handyman</t>
+  </si>
+  <si>
+    <t>Schedule handyman</t>
+  </si>
+  <si>
+    <t>On demand</t>
+  </si>
+  <si>
+    <t>Unclog the sink/toilet</t>
+  </si>
+  <si>
+    <t>Plumber</t>
+  </si>
+  <si>
+    <t>Fix an outlet</t>
+  </si>
+  <si>
+    <t>Find an electrician</t>
+  </si>
+  <si>
+    <t>Find a plumber</t>
+  </si>
+  <si>
+    <t>Electrician</t>
+  </si>
+  <si>
+    <t>Find a house painter</t>
+  </si>
+  <si>
+    <t>Find an HVAC company</t>
+  </si>
+  <si>
+    <t>Furnace technician</t>
+  </si>
+  <si>
+    <t>Find a pest control service</t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
+    <t>Find a roofer</t>
+  </si>
+  <si>
+    <t>Find a window washer</t>
+  </si>
+  <si>
+    <t>Clean the chimneys</t>
+  </si>
+  <si>
+    <t>Chimney service</t>
+  </si>
+  <si>
+    <t>Chimney sweep</t>
+  </si>
+  <si>
+    <t>Find a chimney sweep</t>
+  </si>
+  <si>
+    <t>Find a home security service</t>
+  </si>
+  <si>
+    <t>Home Security Service</t>
+  </si>
+  <si>
+    <t>Order home security service</t>
+  </si>
+  <si>
+    <t>Landscaping company</t>
+  </si>
+  <si>
+    <t>Gardner</t>
+  </si>
+  <si>
+    <t>Find a landscaping company</t>
+  </si>
+  <si>
+    <t>Repair the fence</t>
+  </si>
+  <si>
+    <t>Find a fencing company</t>
+  </si>
+  <si>
+    <t>Fencing company</t>
+  </si>
+  <si>
+    <t>Find a pool boy</t>
+  </si>
+  <si>
+    <t>Pool boy</t>
+  </si>
+  <si>
+    <t>Garage</t>
+  </si>
+  <si>
+    <t>Mechanic</t>
+  </si>
+  <si>
+    <t>Emissions testing agency</t>
+  </si>
+  <si>
+    <t>Find Restaurant</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Find on Yelp</t>
+  </si>
+  <si>
+    <t>Find on Amazon</t>
+  </si>
+  <si>
+    <t>Buy on Amazon?</t>
+  </si>
+  <si>
+    <t>Grocery Store</t>
   </si>
 </sst>
 </file>
@@ -551,14 +800,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H90" totalsRowShown="0">
-  <autoFilter ref="A1:H90"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J116" totalsRowShown="0">
+  <autoFilter ref="A1:J116"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="Category"/>
     <tableColumn id="2" name="Subcategory"/>
     <tableColumn id="3" name="Activity"/>
     <tableColumn id="4" name="Cadence"/>
     <tableColumn id="5" name="Archetype"/>
+    <tableColumn id="10" name="Location"/>
+    <tableColumn id="9" name="Provider"/>
     <tableColumn id="6" name="Action"/>
     <tableColumn id="7" name="Action2"/>
     <tableColumn id="8" name="Action3"/>
@@ -854,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,12 +1118,14 @@
     <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -889,16 +1142,22 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -915,13 +1174,19 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -938,16 +1203,22 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -964,13 +1235,19 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -987,16 +1264,22 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1013,13 +1296,19 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1036,16 +1325,22 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1062,13 +1357,19 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1085,16 +1386,22 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1111,13 +1418,19 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" t="s">
         <v>8</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1134,13 +1447,19 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" t="s">
         <v>8</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1157,16 +1476,22 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>12</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1183,16 +1508,22 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1209,13 +1540,19 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" t="s">
         <v>8</v>
       </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1232,13 +1569,19 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" t="s">
         <v>8</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1255,13 +1598,19 @@
         <v>5</v>
       </c>
       <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" t="s">
         <v>8</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1278,16 +1627,22 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>12</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1304,13 +1659,19 @@
         <v>5</v>
       </c>
       <c r="F18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" t="s">
         <v>8</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1327,13 +1688,19 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" t="s">
         <v>8</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1350,13 +1717,19 @@
         <v>38</v>
       </c>
       <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20" t="s">
         <v>8</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1373,16 +1746,22 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>12</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1399,13 +1778,19 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" t="s">
         <v>8</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1422,50 +1807,59 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>12</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
@@ -1474,16 +1868,22 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" t="s">
+        <v>181</v>
+      </c>
+      <c r="H25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>12</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1491,19 +1891,28 @@
         <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1511,19 +1920,28 @@
         <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1531,19 +1949,31 @@
         <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="G28" t="s">
+        <v>183</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1551,134 +1981,158 @@
         <v>49</v>
       </c>
       <c r="C29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" t="s">
+        <v>194</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" t="s">
+        <v>195</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" t="s">
+        <v>182</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" t="s">
+        <v>182</v>
+      </c>
+      <c r="H32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" t="s">
+        <v>184</v>
+      </c>
+      <c r="G33" t="s">
+        <v>185</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
         <v>58</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D34" t="s">
         <v>59</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E34" t="s">
         <v>54</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -1686,22 +2140,19 @@
         <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="H35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -1709,22 +2160,28 @@
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E36" t="s">
         <v>5</v>
       </c>
       <c r="F36" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36" t="s">
         <v>8</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -1732,22 +2189,31 @@
         <v>61</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="G37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -1755,19 +2221,28 @@
         <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="G38" t="s">
+        <v>187</v>
+      </c>
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -1775,291 +2250,393 @@
         <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>187</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="G40" t="s">
+        <v>214</v>
+      </c>
+      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="G41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>213</v>
       </c>
       <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>199</v>
+      </c>
+      <c r="G42" t="s">
+        <v>214</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" t="s">
         <v>70</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>5</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F43" t="s">
+        <v>198</v>
+      </c>
+      <c r="G43" t="s">
+        <v>216</v>
+      </c>
+      <c r="H43" t="s">
         <v>8</v>
       </c>
-      <c r="G42" t="s">
+      <c r="I43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
         <v>7</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
+        <v>198</v>
+      </c>
+      <c r="G44" t="s">
+        <v>216</v>
+      </c>
+      <c r="H44" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
+      <c r="I44" t="s">
         <v>12</v>
       </c>
-      <c r="H43" t="s">
+      <c r="J44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" t="s">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>200</v>
+      </c>
+      <c r="G45" t="s">
+        <v>201</v>
+      </c>
+      <c r="H45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G46" t="s">
+        <v>201</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>196</v>
+      </c>
+      <c r="D47" t="s">
         <v>31</v>
-      </c>
-      <c r="E44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" t="s">
-        <v>71</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
       </c>
       <c r="F47" t="s">
+        <v>197</v>
+      </c>
+      <c r="G47" t="s">
+        <v>197</v>
+      </c>
+      <c r="H47" t="s">
         <v>8</v>
       </c>
-      <c r="G47" t="s">
+      <c r="I47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="G48" t="s">
+        <v>197</v>
+      </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
       </c>
       <c r="F49" t="s">
+        <v>203</v>
+      </c>
+      <c r="G49" t="s">
+        <v>203</v>
+      </c>
+      <c r="H49" t="s">
         <v>8</v>
       </c>
-      <c r="G49" t="s">
+      <c r="I49" t="s">
         <v>10</v>
       </c>
-      <c r="H49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="G50" t="s">
+        <v>203</v>
+      </c>
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="H51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D52" t="s">
         <v>31</v>
@@ -2068,805 +2645,1616 @@
         <v>38</v>
       </c>
       <c r="F52" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" t="s">
+        <v>175</v>
+      </c>
+      <c r="H52" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" t="s">
         <v>39</v>
       </c>
-      <c r="G52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="G53" t="s">
+        <v>211</v>
+      </c>
+      <c r="H53" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>211</v>
+      </c>
+      <c r="G54" t="s">
+        <v>211</v>
+      </c>
+      <c r="H54" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" t="s">
+        <v>205</v>
+      </c>
+      <c r="E55" t="s">
         <v>5</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F55" t="s">
+        <v>207</v>
+      </c>
+      <c r="G55" t="s">
+        <v>207</v>
+      </c>
+      <c r="H55" t="s">
         <v>8</v>
       </c>
-      <c r="G54" t="s">
+      <c r="I55" t="s">
         <v>10</v>
       </c>
-      <c r="H54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" t="s">
-        <v>102</v>
-      </c>
-      <c r="D55" t="s">
-        <v>31</v>
-      </c>
-      <c r="E55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F55" t="s">
-        <v>39</v>
-      </c>
-      <c r="G55" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>210</v>
       </c>
       <c r="D56" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="G56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="G57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="H57" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>222</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="G58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="D59" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E59" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="F59" t="s">
+        <v>224</v>
+      </c>
+      <c r="G59" t="s">
+        <v>224</v>
+      </c>
+      <c r="H59" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>223</v>
+      </c>
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>224</v>
+      </c>
+      <c r="G60" t="s">
+        <v>224</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>229</v>
+      </c>
+      <c r="D61" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>231</v>
+      </c>
+      <c r="G61" t="s">
+        <v>231</v>
+      </c>
+      <c r="H61" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>230</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
+        <v>231</v>
+      </c>
+      <c r="G62" t="s">
+        <v>231</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" t="s">
+        <v>77</v>
+      </c>
+      <c r="E63" t="s">
+        <v>55</v>
+      </c>
+      <c r="H63" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>105</v>
-      </c>
-      <c r="B60" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" t="s">
-        <v>110</v>
-      </c>
-      <c r="D60" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60" t="s">
-        <v>108</v>
-      </c>
-      <c r="F60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61" t="s">
-        <v>45</v>
-      </c>
-      <c r="E61" t="s">
-        <v>54</v>
-      </c>
-      <c r="F61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>111</v>
-      </c>
-      <c r="B62" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" t="s">
-        <v>114</v>
-      </c>
-      <c r="D62" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" t="s">
-        <v>115</v>
-      </c>
-      <c r="D63" t="s">
-        <v>116</v>
-      </c>
-      <c r="E63" t="s">
-        <v>54</v>
-      </c>
-      <c r="F63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="D64" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E64" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="G64" t="s">
+        <v>227</v>
+      </c>
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="D65" t="s">
         <v>59</v>
       </c>
       <c r="E65" t="s">
-        <v>54</v>
-      </c>
-      <c r="F65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" t="s">
+        <v>232</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
+        <v>233</v>
+      </c>
+      <c r="G66" t="s">
+        <v>233</v>
+      </c>
+      <c r="H66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" t="s">
+        <v>234</v>
+      </c>
+      <c r="G67" t="s">
+        <v>235</v>
+      </c>
+      <c r="H67" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" t="s">
-        <v>122</v>
-      </c>
-      <c r="D66" t="s">
-        <v>59</v>
-      </c>
-      <c r="E66" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" t="s">
-        <v>128</v>
-      </c>
-      <c r="D67" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" t="s">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68" t="s">
-        <v>129</v>
-      </c>
-      <c r="D68" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
+        <v>234</v>
+      </c>
+      <c r="G68" t="s">
+        <v>235</v>
+      </c>
+      <c r="H68" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" t="s">
+        <v>175</v>
+      </c>
+      <c r="G69" t="s">
+        <v>175</v>
+      </c>
+      <c r="H69" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" t="s">
+        <v>175</v>
+      </c>
+      <c r="G70" t="s">
+        <v>175</v>
+      </c>
+      <c r="H70" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" t="s">
         <v>5</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F71" t="s">
+        <v>236</v>
+      </c>
+      <c r="G71" t="s">
+        <v>236</v>
+      </c>
+      <c r="H71" t="s">
         <v>8</v>
       </c>
-      <c r="G68" t="s">
+      <c r="I71" t="s">
         <v>10</v>
       </c>
-      <c r="H68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>120</v>
-      </c>
-      <c r="B69" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69" t="s">
-        <v>124</v>
-      </c>
-      <c r="D69" t="s">
-        <v>59</v>
-      </c>
-      <c r="E69" t="s">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>234</v>
+      </c>
+      <c r="G72" t="s">
+        <v>235</v>
+      </c>
+      <c r="H72" t="s">
         <v>8</v>
       </c>
-      <c r="F69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" t="s">
-        <v>125</v>
-      </c>
-      <c r="C70" t="s">
-        <v>126</v>
-      </c>
-      <c r="D70" t="s">
-        <v>127</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>130</v>
-      </c>
-      <c r="B71" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" t="s">
-        <v>137</v>
-      </c>
-      <c r="D71" t="s">
-        <v>31</v>
-      </c>
-      <c r="E71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" t="s">
-        <v>131</v>
-      </c>
-      <c r="C72" t="s">
-        <v>132</v>
-      </c>
-      <c r="D72" t="s">
-        <v>31</v>
-      </c>
-      <c r="E72" t="s">
-        <v>38</v>
-      </c>
-      <c r="F72" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="D73" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="H73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="D74" t="s">
         <v>31</v>
       </c>
       <c r="E74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>239</v>
+      </c>
+      <c r="G74" t="s">
+        <v>239</v>
+      </c>
+      <c r="H74" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" t="s">
+        <v>237</v>
+      </c>
+      <c r="D75" t="s">
+        <v>238</v>
+      </c>
+      <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
+        <v>239</v>
+      </c>
+      <c r="G75" t="s">
+        <v>239</v>
+      </c>
+      <c r="H75" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" t="s">
         <v>38</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F76" t="s">
+        <v>175</v>
+      </c>
+      <c r="G76" t="s">
+        <v>175</v>
+      </c>
+      <c r="H76" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="I76" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" t="s">
+        <v>90</v>
+      </c>
+      <c r="C77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D77" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78" t="s">
+        <v>175</v>
+      </c>
+      <c r="G78" t="s">
+        <v>175</v>
+      </c>
+      <c r="H78" t="s">
+        <v>39</v>
+      </c>
+      <c r="I78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" t="s">
+        <v>99</v>
+      </c>
+      <c r="D79" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" t="s">
+        <v>175</v>
+      </c>
+      <c r="G79" t="s">
+        <v>175</v>
+      </c>
+      <c r="H79" t="s">
+        <v>39</v>
+      </c>
+      <c r="I79" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>239</v>
+      </c>
+      <c r="G80" t="s">
+        <v>239</v>
+      </c>
+      <c r="H80" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" t="s">
+        <v>10</v>
+      </c>
+      <c r="J80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" t="s">
+        <v>175</v>
+      </c>
+      <c r="G81" t="s">
+        <v>175</v>
+      </c>
+      <c r="H81" t="s">
+        <v>39</v>
+      </c>
+      <c r="I81" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" t="s">
+        <v>103</v>
+      </c>
+      <c r="D82" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" t="s">
+        <v>175</v>
+      </c>
+      <c r="G82" t="s">
+        <v>175</v>
+      </c>
+      <c r="H82" t="s">
+        <v>39</v>
+      </c>
+      <c r="I82" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" t="s">
+        <v>104</v>
+      </c>
+      <c r="C83" t="s">
+        <v>102</v>
+      </c>
+      <c r="D83" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" t="s">
+        <v>175</v>
+      </c>
+      <c r="G83" t="s">
+        <v>175</v>
+      </c>
+      <c r="H83" t="s">
+        <v>39</v>
+      </c>
+      <c r="I83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" t="s">
+        <v>175</v>
+      </c>
+      <c r="G84" t="s">
+        <v>175</v>
+      </c>
+      <c r="H84" t="s">
+        <v>39</v>
+      </c>
+      <c r="I84" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" t="s">
+        <v>107</v>
+      </c>
+      <c r="D85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F85" t="s">
+        <v>243</v>
+      </c>
+      <c r="G85" t="s">
+        <v>243</v>
+      </c>
+      <c r="H85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" t="s">
+        <v>109</v>
+      </c>
+      <c r="C86" t="s">
+        <v>110</v>
+      </c>
+      <c r="D86" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" t="s">
+        <v>108</v>
+      </c>
+      <c r="F86" t="s">
+        <v>243</v>
+      </c>
+      <c r="G86" t="s">
+        <v>243</v>
+      </c>
+      <c r="H86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D87" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" t="s">
+        <v>54</v>
+      </c>
+      <c r="F87" t="s">
+        <v>184</v>
+      </c>
+      <c r="G87" t="s">
+        <v>185</v>
+      </c>
+      <c r="H87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" t="s">
+        <v>112</v>
+      </c>
+      <c r="C88" t="s">
+        <v>114</v>
+      </c>
+      <c r="D88" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" t="s">
+        <v>175</v>
+      </c>
+      <c r="G88" t="s">
+        <v>175</v>
+      </c>
+      <c r="H88" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" t="s">
+        <v>116</v>
+      </c>
+      <c r="E89" t="s">
+        <v>54</v>
+      </c>
+      <c r="H89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" t="s">
+        <v>59</v>
+      </c>
+      <c r="E90" t="s">
+        <v>54</v>
+      </c>
+      <c r="H90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" t="s">
+        <v>119</v>
+      </c>
+      <c r="D91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E91" t="s">
+        <v>54</v>
+      </c>
+      <c r="H91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>120</v>
+      </c>
+      <c r="B92" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" t="s">
+        <v>122</v>
+      </c>
+      <c r="D92" t="s">
+        <v>59</v>
+      </c>
+      <c r="E92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" t="s">
+        <v>128</v>
+      </c>
+      <c r="D93" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" t="s">
+        <v>129</v>
+      </c>
+      <c r="D94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>120</v>
+      </c>
+      <c r="B95" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95" t="s">
+        <v>59</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" t="s">
+        <v>126</v>
+      </c>
+      <c r="D96" t="s">
+        <v>127</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>130</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B97" t="s">
         <v>131</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C97" t="s">
+        <v>137</v>
+      </c>
+      <c r="D97" t="s">
+        <v>31</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="H97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" t="s">
+        <v>38</v>
+      </c>
+      <c r="H98" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>130</v>
+      </c>
+      <c r="B99" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" t="s">
+        <v>135</v>
+      </c>
+      <c r="D99" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="H99" t="s">
+        <v>11</v>
+      </c>
+      <c r="I99" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>130</v>
+      </c>
+      <c r="B100" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" t="s">
+        <v>38</v>
+      </c>
+      <c r="H100" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101" t="s">
+        <v>131</v>
+      </c>
+      <c r="C101" t="s">
         <v>134</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D101" t="s">
         <v>31</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E101" t="s">
         <v>38</v>
       </c>
-      <c r="F75" t="s">
+      <c r="H101" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>136</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B102" t="s">
         <v>138</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C102" t="s">
         <v>139</v>
       </c>
-      <c r="D76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="D102" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" t="s">
         <v>7</v>
       </c>
-      <c r="F76" t="s">
+      <c r="H102" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
+      <c r="I102" t="s">
         <v>12</v>
       </c>
-      <c r="H76" t="s">
+      <c r="J102" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>136</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B103" t="s">
         <v>153</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C103" t="s">
         <v>140</v>
       </c>
-      <c r="D77" t="s">
-        <v>22</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="D103" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" t="s">
         <v>7</v>
       </c>
-      <c r="F77" t="s">
+      <c r="H103" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
+      <c r="I103" t="s">
         <v>12</v>
       </c>
-      <c r="H77" t="s">
+      <c r="J103" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>136</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B104" t="s">
         <v>153</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C104" t="s">
         <v>141</v>
       </c>
-      <c r="D78" t="s">
-        <v>22</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="D104" t="s">
+        <v>22</v>
+      </c>
+      <c r="E104" t="s">
         <v>5</v>
       </c>
-      <c r="F78" t="s">
+      <c r="H104" t="s">
         <v>8</v>
       </c>
-      <c r="G78" t="s">
+      <c r="I104" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>136</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B105" t="s">
         <v>154</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C105" t="s">
         <v>142</v>
       </c>
-      <c r="D79" t="s">
-        <v>22</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="D105" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" t="s">
         <v>55</v>
       </c>
-      <c r="F79" t="s">
+      <c r="H105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>136</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B106" t="s">
         <v>155</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C106" t="s">
         <v>143</v>
       </c>
-      <c r="D80" t="s">
-        <v>22</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="D106" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" t="s">
         <v>7</v>
       </c>
-      <c r="F80" t="s">
+      <c r="H106" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
+      <c r="I106" t="s">
         <v>12</v>
       </c>
-      <c r="H80" t="s">
+      <c r="J106" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>136</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B107" t="s">
         <v>155</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C107" t="s">
         <v>144</v>
       </c>
-      <c r="D81" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="D107" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" t="s">
         <v>5</v>
       </c>
-      <c r="F81" t="s">
+      <c r="H107" t="s">
         <v>8</v>
       </c>
-      <c r="G81" t="s">
+      <c r="I107" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>136</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B108" t="s">
         <v>156</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C108" t="s">
         <v>145</v>
       </c>
-      <c r="D82" t="s">
-        <v>22</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="D108" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>136</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B109" t="s">
         <v>156</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C109" t="s">
         <v>158</v>
       </c>
-      <c r="D83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="D109" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>136</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B110" t="s">
         <v>159</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C110" t="s">
         <v>146</v>
       </c>
-      <c r="D84" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="D110" t="s">
+        <v>22</v>
+      </c>
+      <c r="E110" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>136</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B111" t="s">
         <v>156</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C111" t="s">
         <v>147</v>
       </c>
-      <c r="D85" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="D111" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" t="s">
         <v>7</v>
       </c>
-      <c r="F85" t="s">
+      <c r="H111" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
+      <c r="I111" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>136</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B112" t="s">
         <v>156</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C112" t="s">
         <v>148</v>
       </c>
-      <c r="D86" t="s">
-        <v>22</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="D112" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" t="s">
         <v>38</v>
       </c>
-      <c r="F86" t="s">
+      <c r="H112" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>136</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B113" t="s">
         <v>157</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C113" t="s">
         <v>149</v>
       </c>
-      <c r="D87" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="D113" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>136</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B114" t="s">
         <v>157</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C114" t="s">
         <v>150</v>
       </c>
-      <c r="D88" t="s">
-        <v>22</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="D114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>136</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B115" t="s">
         <v>160</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C115" t="s">
         <v>151</v>
       </c>
-      <c r="D89" t="s">
-        <v>22</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="D115" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" t="s">
         <v>7</v>
       </c>
-      <c r="F89" t="s">
+      <c r="H115" t="s">
         <v>39</v>
       </c>
-      <c r="G89" t="s">
+      <c r="I115" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>136</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B116" t="s">
         <v>160</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C116" t="s">
         <v>152</v>
       </c>
-      <c r="D90" t="s">
-        <v>22</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="D116" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" t="s">
         <v>108</v>
       </c>
     </row>
